--- a/excel_exports/weekly_topics.xlsx
+++ b/excel_exports/weekly_topics.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,42 +534,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>این</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is a topic for test </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>این برنامه تست است</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-03 16:16:11</t>
-        </is>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
